--- a/Yeni Veri/new_processed-answers.xlsx
+++ b/Yeni Veri/new_processed-answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr codeName="BuÇalışmaKitabı"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bkkas/Documents/TEZ/Tez/Yeni Veri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073EEBEA-087B-2A42-92E4-2FBFCA669E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F2584F-D722-4441-AEAD-A01420B836DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q-1" sheetId="1" r:id="rId1"/>
@@ -2292,9 +2292,6 @@
     <t>Q-1: What are some contributions of Arabs to science?</t>
   </si>
   <si>
-    <t>The Arabs made significant contributions to mathematics, astronomy, medicine, chemistry, and engineering. Notably, the development of algebra and algorithms, the optical works of Ibn al-Haytham, the medical encyclopedia "The Canon of Medicine" by Avicenna, and the contributions to trigonometry by Abū al-Wafā' are foundational. Additionally, the mathematical and astronomical works of Al-Khwarizmi are cornerstone contributions, highlighting the Arabs' role in shaping modern science.</t>
-  </si>
-  <si>
     <t>Q-2: What are the contributions of the Roman Empire to the legal system?</t>
   </si>
   <si>
@@ -2317,6 +2314,17 @@
   </si>
   <si>
     <t>The Cold War, the ideological and political rivalry that emerged between the USA and the USSR after World War II, divided the world into capitalist and communist blocs, leading to regional conflicts, arms and space races. It elevated the importance of security in international relations, led to the formation of military alliances like NATO and the Warsaw Pact, and deepened ideological divides in global politics. The end of the Cold War accelerated democratization processes in Eastern Europe and laid the groundwork for a multipolar world order.</t>
+  </si>
+  <si>
+    <t>Algebra algorithms, the optical works of Ibn al-Haytham, the medical encyclopedia "The Canon of Medicine" by Ibni Sina.  Al-Khwarizmi. Optics and theory of refraction. Lens. Accurate time measurement for pray. Direction of Mecca, Mekke.
+reflect and tranmission
+alcahol
+cartography 
+map making
+translation of greek work
+house of wisdom library
+surgery
+blood circulation</t>
   </si>
 </sst>
 </file>
@@ -2343,6 +2351,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2711,11 +2720,15 @@
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -10027,13 +10040,14 @@
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="68.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="92.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -10044,44 +10058,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="176" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>754</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>756</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>758</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>760</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>762</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>763</v>
       </c>
     </row>
   </sheetData>

--- a/Yeni Veri/new_processed-answers.xlsx
+++ b/Yeni Veri/new_processed-answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr codeName="BuÇalışmaKitabı"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bkkas/Documents/TEZ/Tez/Yeni Veri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F2584F-D722-4441-AEAD-A01420B836DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A377E5EE-5D60-9746-87E8-9D5E32F5E9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q-1" sheetId="1" r:id="rId1"/>
@@ -2310,12 +2310,6 @@
     <t>The Industrial Revolution, originating in 18th and 19th century England, fundamentally changed the world by transitioning from manual production methods to mechanization, widespread use of coal and steam power. This era accelerated urbanization, introduced the factory system, and highlighted social class distinctions. Economic growth, population increases, and improvements in living standards were observed, alongside challenges such as labor conditions, environmental issues, and social inequities.</t>
   </si>
   <si>
-    <t>Q-5: What were the effects of the Cold War on global politics?</t>
-  </si>
-  <si>
-    <t>The Cold War, the ideological and political rivalry that emerged between the USA and the USSR after World War II, divided the world into capitalist and communist blocs, leading to regional conflicts, arms and space races. It elevated the importance of security in international relations, led to the formation of military alliances like NATO and the Warsaw Pact, and deepened ideological divides in global politics. The end of the Cold War accelerated democratization processes in Eastern Europe and laid the groundwork for a multipolar world order.</t>
-  </si>
-  <si>
     <t>Algebra algorithms, the optical works of Ibn al-Haytham, the medical encyclopedia "The Canon of Medicine" by Ibni Sina.  Al-Khwarizmi. Optics and theory of refraction. Lens. Accurate time measurement for pray. Direction of Mecca, Mekke.
 reflect and tranmission
 alcahol
@@ -2325,6 +2319,12 @@
 house of wisdom library
 surgery
 blood circulation</t>
+  </si>
+  <si>
+    <t>According to Aristotle, if a hypothesis leads to a contradiction, it must be rejected as false. This method, known as reductio ad absurdum (proof by contradiction), is used in logic to demonstrate the invalidity of an assumption by showing that it results in an impossible or contradictory outcome.</t>
+  </si>
+  <si>
+    <t>Q-5: How is a contradiction resolved in Aristotle’s logic?</t>
   </si>
 </sst>
 </file>
@@ -2720,7 +2720,7 @@
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -8591,6 +8591,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -10040,8 +10044,8 @@
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10063,10 +10067,10 @@
         <v>754</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>755</v>
       </c>
@@ -10074,7 +10078,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>757</v>
       </c>
@@ -10082,7 +10086,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>759</v>
       </c>
@@ -10090,9 +10094,9 @@
         <v>760</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>762</v>

--- a/Yeni Veri/new_processed-answers.xlsx
+++ b/Yeni Veri/new_processed-answers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr codeName="BuÇalışmaKitabı"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bkkas/Documents/TEZ/Tez/Yeni Veri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A377E5EE-5D60-9746-87E8-9D5E32F5E9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF6B990-DB2E-6E49-A7AC-A4EA0B415DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10045,7 +10045,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Yeni Veri/new_processed-answers.xlsx
+++ b/Yeni Veri/new_processed-answers.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr codeName="BuÇalışmaKitabı"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bkkas/Documents/TEZ/Tez/Yeni Veri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF6B990-DB2E-6E49-A7AC-A4EA0B415DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1D09E8-EEA5-E244-9EC1-7678B0525600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q-1" sheetId="1" r:id="rId1"/>
-    <sheet name="Q-2" sheetId="2" r:id="rId2"/>
-    <sheet name="Q-3" sheetId="3" r:id="rId3"/>
+    <sheet name="Q-2" sheetId="3" r:id="rId2"/>
+    <sheet name="Q-3" sheetId="2" r:id="rId3"/>
     <sheet name="Q-4" sheetId="4" r:id="rId4"/>
     <sheet name="Q-5" sheetId="5" r:id="rId5"/>
     <sheet name="correct_answers" sheetId="6" r:id="rId6"/>
@@ -4189,6 +4189,1481 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sayfa3"/>
+  <dimension ref="A1:C134"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="58.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>397</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>398</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" t="s">
+        <v>399</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>400</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>401</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" t="s">
+        <v>403</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>404</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>405</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24" t="s">
+        <v>406</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s">
+        <v>407</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" t="s">
+        <v>409</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" t="s">
+        <v>410</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>411</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B31" t="s">
+        <v>412</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" t="s">
+        <v>413</v>
+      </c>
+      <c r="C32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>414</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>415</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>416</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" t="s">
+        <v>417</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" t="s">
+        <v>418</v>
+      </c>
+      <c r="C38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>419</v>
+      </c>
+      <c r="C39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" t="s">
+        <v>420</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>421</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s">
+        <v>422</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>423</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" t="s">
+        <v>424</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45" t="s">
+        <v>425</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>426</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" t="s">
+        <v>427</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" t="s">
+        <v>428</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>250</v>
+      </c>
+      <c r="B49" t="s">
+        <v>429</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" t="s">
+        <v>430</v>
+      </c>
+      <c r="C50">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" t="s">
+        <v>431</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
+        <v>432</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>256</v>
+      </c>
+      <c r="B53" t="s">
+        <v>433</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" t="s">
+        <v>434</v>
+      </c>
+      <c r="C54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>254</v>
+      </c>
+      <c r="B55" t="s">
+        <v>435</v>
+      </c>
+      <c r="C55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" t="s">
+        <v>436</v>
+      </c>
+      <c r="C56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" t="s">
+        <v>437</v>
+      </c>
+      <c r="C57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" t="s">
+        <v>438</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>211</v>
+      </c>
+      <c r="B60" t="s">
+        <v>439</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" t="s">
+        <v>440</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" t="s">
+        <v>441</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>260</v>
+      </c>
+      <c r="B63" t="s">
+        <v>442</v>
+      </c>
+      <c r="C63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>443</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65" t="s">
+        <v>444</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" t="s">
+        <v>445</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" t="s">
+        <v>446</v>
+      </c>
+      <c r="C67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" t="s">
+        <v>447</v>
+      </c>
+      <c r="C68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" t="s">
+        <v>448</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>233</v>
+      </c>
+      <c r="B70" t="s">
+        <v>449</v>
+      </c>
+      <c r="C70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" t="s">
+        <v>450</v>
+      </c>
+      <c r="C71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>451</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" t="s">
+        <v>452</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" t="s">
+        <v>453</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" t="s">
+        <v>454</v>
+      </c>
+      <c r="C75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" t="s">
+        <v>455</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>231</v>
+      </c>
+      <c r="B77" t="s">
+        <v>456</v>
+      </c>
+      <c r="C77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" t="s">
+        <v>457</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" t="s">
+        <v>458</v>
+      </c>
+      <c r="C79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" t="s">
+        <v>459</v>
+      </c>
+      <c r="C80">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" t="s">
+        <v>460</v>
+      </c>
+      <c r="C81">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" t="s">
+        <v>461</v>
+      </c>
+      <c r="C82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" t="s">
+        <v>462</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" t="s">
+        <v>463</v>
+      </c>
+      <c r="C84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>182</v>
+      </c>
+      <c r="B85" t="s">
+        <v>464</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" t="s">
+        <v>465</v>
+      </c>
+      <c r="C86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>466</v>
+      </c>
+      <c r="C87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" t="s">
+        <v>467</v>
+      </c>
+      <c r="C88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" t="s">
+        <v>468</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" t="s">
+        <v>469</v>
+      </c>
+      <c r="C91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92" t="s">
+        <v>470</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>217</v>
+      </c>
+      <c r="B93" t="s">
+        <v>471</v>
+      </c>
+      <c r="C93">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" t="s">
+        <v>472</v>
+      </c>
+      <c r="C94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" t="s">
+        <v>473</v>
+      </c>
+      <c r="C95">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>225</v>
+      </c>
+      <c r="B96" t="s">
+        <v>474</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" t="s">
+        <v>475</v>
+      </c>
+      <c r="C97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>244</v>
+      </c>
+      <c r="B98" t="s">
+        <v>476</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" t="s">
+        <v>477</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>478</v>
+      </c>
+      <c r="C100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>188</v>
+      </c>
+      <c r="B101" t="s">
+        <v>479</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>480</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>168</v>
+      </c>
+      <c r="B103" t="s">
+        <v>481</v>
+      </c>
+      <c r="C103">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>235</v>
+      </c>
+      <c r="B104" t="s">
+        <v>482</v>
+      </c>
+      <c r="C104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>229</v>
+      </c>
+      <c r="B105" t="s">
+        <v>483</v>
+      </c>
+      <c r="C105">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106" t="s">
+        <v>484</v>
+      </c>
+      <c r="C106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>239</v>
+      </c>
+      <c r="B107" t="s">
+        <v>485</v>
+      </c>
+      <c r="C107">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" t="s">
+        <v>486</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>487</v>
+      </c>
+      <c r="C109">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>170</v>
+      </c>
+      <c r="B110" t="s">
+        <v>488</v>
+      </c>
+      <c r="C110">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>489</v>
+      </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>96</v>
+      </c>
+      <c r="B112" t="s">
+        <v>490</v>
+      </c>
+      <c r="C112">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>196</v>
+      </c>
+      <c r="B113" t="s">
+        <v>491</v>
+      </c>
+      <c r="C113">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" t="s">
+        <v>492</v>
+      </c>
+      <c r="C114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115" t="s">
+        <v>493</v>
+      </c>
+      <c r="C115">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>494</v>
+      </c>
+      <c r="C116">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>203</v>
+      </c>
+      <c r="B117" t="s">
+        <v>495</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118" t="s">
+        <v>496</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>100</v>
+      </c>
+      <c r="B119" t="s">
+        <v>497</v>
+      </c>
+      <c r="C119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>158</v>
+      </c>
+      <c r="B120" t="s">
+        <v>498</v>
+      </c>
+      <c r="C120">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>207</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>174</v>
+      </c>
+      <c r="B122" t="s">
+        <v>499</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>500</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>227</v>
+      </c>
+      <c r="B124" t="s">
+        <v>501</v>
+      </c>
+      <c r="C124">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>80</v>
+      </c>
+      <c r="B125" t="s">
+        <v>502</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>98</v>
+      </c>
+      <c r="B126" t="s">
+        <v>503</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" t="s">
+        <v>504</v>
+      </c>
+      <c r="C127">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" t="s">
+        <v>505</v>
+      </c>
+      <c r="C128">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>176</v>
+      </c>
+      <c r="B129" t="s">
+        <v>506</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>164</v>
+      </c>
+      <c r="B130" t="s">
+        <v>507</v>
+      </c>
+      <c r="C130">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>75</v>
+      </c>
+      <c r="B131" t="s">
+        <v>508</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" t="s">
+        <v>509</v>
+      </c>
+      <c r="C132">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="s">
+        <v>510</v>
+      </c>
+      <c r="C133">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>29</v>
+      </c>
+      <c r="B134" t="s">
+        <v>511</v>
+      </c>
+      <c r="C134">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="A1:C134"/>
@@ -4196,6 +5671,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="55.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -5651,1476 +7129,6 @@
       </c>
       <c r="C134">
         <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sayfa3"/>
-  <dimension ref="A1:C134"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" t="s">
-        <v>387</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" t="s">
-        <v>390</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" t="s">
-        <v>393</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" t="s">
-        <v>394</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B13" t="s">
-        <v>395</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" t="s">
-        <v>396</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>397</v>
-      </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" t="s">
-        <v>398</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>248</v>
-      </c>
-      <c r="B17" t="s">
-        <v>399</v>
-      </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>400</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>401</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>209</v>
-      </c>
-      <c r="B20" t="s">
-        <v>402</v>
-      </c>
-      <c r="C20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" t="s">
-        <v>403</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>404</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>405</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>258</v>
-      </c>
-      <c r="B24" t="s">
-        <v>406</v>
-      </c>
-      <c r="C24">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B26" t="s">
-        <v>407</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B27" t="s">
-        <v>408</v>
-      </c>
-      <c r="C27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>246</v>
-      </c>
-      <c r="B28" t="s">
-        <v>409</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" t="s">
-        <v>410</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" t="s">
-        <v>411</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>237</v>
-      </c>
-      <c r="B31" t="s">
-        <v>412</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>223</v>
-      </c>
-      <c r="B32" t="s">
-        <v>413</v>
-      </c>
-      <c r="C32">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" t="s">
-        <v>414</v>
-      </c>
-      <c r="C33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>243</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" t="s">
-        <v>415</v>
-      </c>
-      <c r="C35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" t="s">
-        <v>416</v>
-      </c>
-      <c r="C36">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>194</v>
-      </c>
-      <c r="B37" t="s">
-        <v>417</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>155</v>
-      </c>
-      <c r="B38" t="s">
-        <v>418</v>
-      </c>
-      <c r="C38">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" t="s">
-        <v>419</v>
-      </c>
-      <c r="C39">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>205</v>
-      </c>
-      <c r="B40" t="s">
-        <v>420</v>
-      </c>
-      <c r="C40">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" t="s">
-        <v>421</v>
-      </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" t="s">
-        <v>422</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" t="s">
-        <v>423</v>
-      </c>
-      <c r="C43">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" t="s">
-        <v>424</v>
-      </c>
-      <c r="C44">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>215</v>
-      </c>
-      <c r="B45" t="s">
-        <v>425</v>
-      </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" t="s">
-        <v>426</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>190</v>
-      </c>
-      <c r="B47" t="s">
-        <v>427</v>
-      </c>
-      <c r="C47">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" t="s">
-        <v>428</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>250</v>
-      </c>
-      <c r="B49" t="s">
-        <v>429</v>
-      </c>
-      <c r="C49">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>123</v>
-      </c>
-      <c r="B50" t="s">
-        <v>430</v>
-      </c>
-      <c r="C50">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" t="s">
-        <v>431</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" t="s">
-        <v>432</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>256</v>
-      </c>
-      <c r="B53" t="s">
-        <v>433</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>221</v>
-      </c>
-      <c r="B54" t="s">
-        <v>434</v>
-      </c>
-      <c r="C54">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>254</v>
-      </c>
-      <c r="B55" t="s">
-        <v>435</v>
-      </c>
-      <c r="C55">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" t="s">
-        <v>436</v>
-      </c>
-      <c r="C56">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" t="s">
-        <v>437</v>
-      </c>
-      <c r="C57">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>160</v>
-      </c>
-      <c r="B59" t="s">
-        <v>438</v>
-      </c>
-      <c r="C59">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>211</v>
-      </c>
-      <c r="B60" t="s">
-        <v>439</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" t="s">
-        <v>440</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B62" t="s">
-        <v>441</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>260</v>
-      </c>
-      <c r="B63" t="s">
-        <v>442</v>
-      </c>
-      <c r="C63">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" t="s">
-        <v>443</v>
-      </c>
-      <c r="C64">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>153</v>
-      </c>
-      <c r="B65" t="s">
-        <v>444</v>
-      </c>
-      <c r="C65">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>141</v>
-      </c>
-      <c r="B66" t="s">
-        <v>445</v>
-      </c>
-      <c r="C66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>166</v>
-      </c>
-      <c r="B67" t="s">
-        <v>446</v>
-      </c>
-      <c r="C67">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>130</v>
-      </c>
-      <c r="B68" t="s">
-        <v>447</v>
-      </c>
-      <c r="C68">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>145</v>
-      </c>
-      <c r="B69" t="s">
-        <v>448</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>233</v>
-      </c>
-      <c r="B70" t="s">
-        <v>449</v>
-      </c>
-      <c r="C70">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>162</v>
-      </c>
-      <c r="B71" t="s">
-        <v>450</v>
-      </c>
-      <c r="C71">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>31</v>
-      </c>
-      <c r="B72" t="s">
-        <v>451</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>149</v>
-      </c>
-      <c r="B73" t="s">
-        <v>452</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74" t="s">
-        <v>453</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75" t="s">
-        <v>454</v>
-      </c>
-      <c r="C75">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>151</v>
-      </c>
-      <c r="B76" t="s">
-        <v>455</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>231</v>
-      </c>
-      <c r="B77" t="s">
-        <v>456</v>
-      </c>
-      <c r="C77">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>67</v>
-      </c>
-      <c r="B78" t="s">
-        <v>457</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>126</v>
-      </c>
-      <c r="B79" t="s">
-        <v>458</v>
-      </c>
-      <c r="C79">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>180</v>
-      </c>
-      <c r="B80" t="s">
-        <v>459</v>
-      </c>
-      <c r="C80">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>69</v>
-      </c>
-      <c r="B81" t="s">
-        <v>460</v>
-      </c>
-      <c r="C81">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>77</v>
-      </c>
-      <c r="B82" t="s">
-        <v>461</v>
-      </c>
-      <c r="C82">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>133</v>
-      </c>
-      <c r="B83" t="s">
-        <v>462</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>192</v>
-      </c>
-      <c r="B84" t="s">
-        <v>463</v>
-      </c>
-      <c r="C84">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>182</v>
-      </c>
-      <c r="B85" t="s">
-        <v>464</v>
-      </c>
-      <c r="C85">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>137</v>
-      </c>
-      <c r="B86" t="s">
-        <v>465</v>
-      </c>
-      <c r="C86">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" t="s">
-        <v>466</v>
-      </c>
-      <c r="C87">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>23</v>
-      </c>
-      <c r="B88" t="s">
-        <v>467</v>
-      </c>
-      <c r="C88">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" t="s">
-        <v>468</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>79</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>201</v>
-      </c>
-      <c r="B91" t="s">
-        <v>469</v>
-      </c>
-      <c r="C91">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>117</v>
-      </c>
-      <c r="B92" t="s">
-        <v>470</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>217</v>
-      </c>
-      <c r="B93" t="s">
-        <v>471</v>
-      </c>
-      <c r="C93">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>106</v>
-      </c>
-      <c r="B94" t="s">
-        <v>472</v>
-      </c>
-      <c r="C94">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>63</v>
-      </c>
-      <c r="B95" t="s">
-        <v>473</v>
-      </c>
-      <c r="C95">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>225</v>
-      </c>
-      <c r="B96" t="s">
-        <v>474</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>147</v>
-      </c>
-      <c r="B97" t="s">
-        <v>475</v>
-      </c>
-      <c r="C97">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>244</v>
-      </c>
-      <c r="B98" t="s">
-        <v>476</v>
-      </c>
-      <c r="C98">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99" t="s">
-        <v>477</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>21</v>
-      </c>
-      <c r="B100" t="s">
-        <v>478</v>
-      </c>
-      <c r="C100">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>188</v>
-      </c>
-      <c r="B101" t="s">
-        <v>479</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>7</v>
-      </c>
-      <c r="B102" t="s">
-        <v>480</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>168</v>
-      </c>
-      <c r="B103" t="s">
-        <v>481</v>
-      </c>
-      <c r="C103">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>235</v>
-      </c>
-      <c r="B104" t="s">
-        <v>482</v>
-      </c>
-      <c r="C104">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>229</v>
-      </c>
-      <c r="B105" t="s">
-        <v>483</v>
-      </c>
-      <c r="C105">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>39</v>
-      </c>
-      <c r="B106" t="s">
-        <v>484</v>
-      </c>
-      <c r="C106">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>239</v>
-      </c>
-      <c r="B107" t="s">
-        <v>485</v>
-      </c>
-      <c r="C107">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" t="s">
-        <v>486</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>9</v>
-      </c>
-      <c r="B109" t="s">
-        <v>487</v>
-      </c>
-      <c r="C109">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>170</v>
-      </c>
-      <c r="B110" t="s">
-        <v>488</v>
-      </c>
-      <c r="C110">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111" t="s">
-        <v>489</v>
-      </c>
-      <c r="C111">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>96</v>
-      </c>
-      <c r="B112" t="s">
-        <v>490</v>
-      </c>
-      <c r="C112">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>196</v>
-      </c>
-      <c r="B113" t="s">
-        <v>491</v>
-      </c>
-      <c r="C113">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>37</v>
-      </c>
-      <c r="B114" t="s">
-        <v>492</v>
-      </c>
-      <c r="C114">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>35</v>
-      </c>
-      <c r="B115" t="s">
-        <v>493</v>
-      </c>
-      <c r="C115">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>5</v>
-      </c>
-      <c r="B116" t="s">
-        <v>494</v>
-      </c>
-      <c r="C116">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>203</v>
-      </c>
-      <c r="B117" t="s">
-        <v>495</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>27</v>
-      </c>
-      <c r="B118" t="s">
-        <v>496</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>100</v>
-      </c>
-      <c r="B119" t="s">
-        <v>497</v>
-      </c>
-      <c r="C119">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>158</v>
-      </c>
-      <c r="B120" t="s">
-        <v>498</v>
-      </c>
-      <c r="C120">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>207</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>174</v>
-      </c>
-      <c r="B122" t="s">
-        <v>499</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>125</v>
-      </c>
-      <c r="B123" t="s">
-        <v>500</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>227</v>
-      </c>
-      <c r="B124" t="s">
-        <v>501</v>
-      </c>
-      <c r="C124">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>80</v>
-      </c>
-      <c r="B125" t="s">
-        <v>502</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>98</v>
-      </c>
-      <c r="B126" t="s">
-        <v>503</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>25</v>
-      </c>
-      <c r="B127" t="s">
-        <v>504</v>
-      </c>
-      <c r="C127">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>252</v>
-      </c>
-      <c r="B128" t="s">
-        <v>505</v>
-      </c>
-      <c r="C128">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>176</v>
-      </c>
-      <c r="B129" t="s">
-        <v>506</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>164</v>
-      </c>
-      <c r="B130" t="s">
-        <v>507</v>
-      </c>
-      <c r="C130">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>75</v>
-      </c>
-      <c r="B131" t="s">
-        <v>508</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>15</v>
-      </c>
-      <c r="B132" t="s">
-        <v>509</v>
-      </c>
-      <c r="C132">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>139</v>
-      </c>
-      <c r="B133" t="s">
-        <v>510</v>
-      </c>
-      <c r="C133">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>29</v>
-      </c>
-      <c r="B134" t="s">
-        <v>511</v>
-      </c>
-      <c r="C134">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -10044,7 +10052,7 @@
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
